--- a/Testmethoden/A-B Vergleich/Fehler und Anmerkungen.xlsx
+++ b/Testmethoden/A-B Vergleich/Fehler und Anmerkungen.xlsx
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:T5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,11 +871,11 @@
       </c>
       <c r="S4" s="16">
         <f>F116</f>
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="T4" s="14">
         <f>S4/Q4</f>
-        <v>22.428571428571427</v>
+        <v>25.285714285714285</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
@@ -885,9 +885,7 @@
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="6"/>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
@@ -909,11 +907,11 @@
       </c>
       <c r="S5" s="17">
         <f>M116</f>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="T5" s="17">
         <f>S5/Q5</f>
-        <v>2.2857142857142856</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
@@ -943,7 +941,9 @@
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>23</v>
       </c>
@@ -965,9 +965,7 @@
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
-        <v>3</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
@@ -987,7 +985,9 @@
       <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>25</v>
@@ -1069,7 +1069,9 @@
       <c r="E13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1091,9 @@
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="13">
+        <v>2</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1109,7 +1113,9 @@
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
@@ -1130,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="6"/>
       <c r="I16" s="4"/>
@@ -1151,7 +1157,9 @@
       <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="13">
+        <v>4</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
@@ -1169,7 +1177,9 @@
       <c r="E18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="13">
+        <v>2</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1399,7 +1409,9 @@
       <c r="L28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
@@ -1745,7 +1757,9 @@
       <c r="L44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="5">
+        <v>3</v>
+      </c>
       <c r="N44" s="6" t="s">
         <v>38</v>
       </c>
@@ -1829,7 +1843,9 @@
       <c r="L48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="5"/>
+      <c r="M48" s="5">
+        <v>1</v>
+      </c>
       <c r="N48" s="6" t="s">
         <v>39</v>
       </c>
@@ -1871,7 +1887,9 @@
       <c r="L50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="5"/>
+      <c r="M50" s="5">
+        <v>1</v>
+      </c>
       <c r="N50" s="6" t="s">
         <v>41</v>
       </c>
@@ -3023,7 +3041,9 @@
       <c r="E104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F104" s="5"/>
+      <c r="F104" s="5">
+        <v>3</v>
+      </c>
       <c r="G104" s="6"/>
       <c r="I104" s="4"/>
       <c r="J104" s="5"/>
@@ -3043,7 +3063,9 @@
       <c r="E105" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="5"/>
+      <c r="F105" s="5">
+        <v>5</v>
+      </c>
       <c r="G105" s="6"/>
       <c r="I105" s="4"/>
       <c r="J105" s="5"/>
@@ -3061,7 +3083,9 @@
       <c r="E106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="5"/>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
       <c r="G106" s="6"/>
       <c r="I106" s="4"/>
       <c r="J106" s="5"/>
@@ -3099,9 +3123,7 @@
       <c r="E108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F108" s="5">
-        <v>3</v>
-      </c>
+      <c r="F108" s="13"/>
       <c r="G108" s="6"/>
       <c r="I108" s="4"/>
       <c r="J108" s="5"/>
@@ -3111,7 +3133,9 @@
       <c r="L108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M108" s="5"/>
+      <c r="M108" s="5">
+        <v>3</v>
+      </c>
       <c r="N108" s="6"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
@@ -3121,8 +3145,8 @@
       <c r="E109" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F109" s="5">
-        <v>5</v>
+      <c r="F109" s="13">
+        <v>2</v>
       </c>
       <c r="G109" s="6"/>
       <c r="I109" s="4"/>
@@ -3131,7 +3155,9 @@
       <c r="L109" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M109" s="5"/>
+      <c r="M109" s="5">
+        <v>5</v>
+      </c>
       <c r="N109" s="6"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.3">
@@ -3141,8 +3167,8 @@
       <c r="E110" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F110" s="5">
-        <v>1</v>
+      <c r="F110" s="13">
+        <v>2</v>
       </c>
       <c r="G110" s="6"/>
       <c r="I110" s="4"/>
@@ -3151,7 +3177,9 @@
       <c r="L110" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M110" s="5"/>
+      <c r="M110" s="5">
+        <v>1</v>
+      </c>
       <c r="N110" s="6"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
@@ -3161,7 +3189,6 @@
       <c r="E111" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="I111" s="4"/>
       <c r="J111" s="5"/>
@@ -3181,7 +3208,6 @@
       <c r="E112" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="13"/>
       <c r="G112" s="6"/>
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
@@ -3201,9 +3227,6 @@
       <c r="E113" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F113" s="13">
-        <v>2</v>
-      </c>
       <c r="G113" s="6"/>
       <c r="I113" s="4"/>
       <c r="J113" s="5"/>
@@ -3211,7 +3234,9 @@
       <c r="L113" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M113" s="5"/>
+      <c r="M113" s="13">
+        <v>2</v>
+      </c>
       <c r="N113" s="6"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.3">
@@ -3221,9 +3246,6 @@
       <c r="E114" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F114" s="13">
-        <v>2</v>
-      </c>
       <c r="G114" s="6"/>
       <c r="I114" s="4"/>
       <c r="J114" s="5"/>
@@ -3231,7 +3253,9 @@
       <c r="L114" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M114" s="5"/>
+      <c r="M114" s="13">
+        <v>2</v>
+      </c>
       <c r="N114" s="6"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.3">
@@ -3258,14 +3282,14 @@
       </c>
       <c r="F116">
         <f>SUM(F4:F115)</f>
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I116" t="s">
         <v>64</v>
       </c>
       <c r="M116">
         <f>SUM(M4:M115)</f>
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.3">

--- a/Testmethoden/A-B Vergleich/Fehler und Anmerkungen.xlsx
+++ b/Testmethoden/A-B Vergleich/Fehler und Anmerkungen.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="B3:T117"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M118" activeCellId="0" sqref="M118"/>
+      <selection pane="topLeft" activeCell="F117" activeCellId="0" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="R4" s="8" t="n">
         <f aca="false">F117</f>
-        <v>22.4285714285714</v>
+        <v>25.2857142857143</v>
       </c>
       <c r="S4" s="8" t="n">
         <f aca="false">F116</f>
@@ -3067,8 +3067,8 @@
         <v>22.5714285714286</v>
       </c>
       <c r="F117" s="0" t="n">
-        <f aca="false">157/7</f>
-        <v>22.4285714285714</v>
+        <f aca="false">F116/7</f>
+        <v>25.2857142857143</v>
       </c>
       <c r="I117" s="0" t="s">
         <v>72</v>
